--- a/Tools/ExcelToXml/bin/Debug/scp/12area区域.xlsx
+++ b/Tools/ExcelToXml/bin/Debug/scp/12area区域.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="9120" windowHeight="2760"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="9120" windowHeight="2760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,7 +175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -462,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -556,4 +557,99 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>